--- a/Model Evaluation Report.xlsx
+++ b/Model Evaluation Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Surya Teja\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CD4B36D-1954-442F-8507-494696EB1F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAA94CB1-84AD-4138-AF45-49D47E096346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{25EE01A3-D2B7-4211-B54E-AF81B677FFA0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Feature</t>
   </si>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>Parameters</t>
+  </si>
+  <si>
+    <t>115 Seconds</t>
+  </si>
+  <si>
+    <t>395 Seconds</t>
+  </si>
+  <si>
+    <t>168 Seconds</t>
+  </si>
+  <si>
+    <t>Time taken to train</t>
   </si>
 </sst>
 </file>
@@ -152,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -177,6 +189,9 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,15 +518,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C31629-CED8-4E37-AB21-FAC5F4D65B20}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" customWidth="1"/>
     <col min="2" max="2" width="16.77734375" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.77734375" customWidth="1"/>
@@ -616,45 +631,59 @@
         <v>44426</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="7">
-        <v>0.87119999999999997</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0.99760000000000004</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.99380000000000002</v>
+    <row r="8" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="8">
-        <v>0.95779999999999998</v>
+        <v>16</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0.87119999999999997</v>
       </c>
       <c r="C9" s="7">
-        <v>0.99060000000000004</v>
+        <v>0.99760000000000004</v>
       </c>
       <c r="D9" s="7">
-        <v>0.9889</v>
+        <v>0.99380000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0.95779999999999998</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.99060000000000004</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.9889</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B11" s="7">
         <v>0.95630000000000004</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C11" s="7">
         <v>0.99150000000000005</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D11" s="7">
         <v>0.98850000000000005</v>
       </c>
     </row>
